--- a/data_year/zb/固定资产投资和房地产/按项目规模分房地产开发完成投资.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按项目规模分房地产开发完成投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,528 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4063.8179</v>
+        <v>16395.7325</v>
       </c>
       <c r="C2" t="n">
-        <v>664.6676</v>
+        <v>613.1541999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1818.564</v>
+        <v>17814.0904</v>
       </c>
       <c r="E2" t="n">
-        <v>662.473</v>
+        <v>920.3656999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1421.6639</v>
+        <v>9244.3326</v>
       </c>
       <c r="G2" t="n">
-        <v>120.6793</v>
+        <v>72.74290000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1363.4361</v>
+        <v>3181.7496</v>
       </c>
       <c r="I2" t="n">
-        <v>38.4991</v>
+        <v>17.2351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6290.9689</v>
+        <v>19155.5027</v>
       </c>
       <c r="C3" t="n">
-        <v>686.9027</v>
+        <v>523.4813</v>
       </c>
       <c r="D3" t="n">
-        <v>3543.544</v>
+        <v>25706.5729</v>
       </c>
       <c r="E3" t="n">
-        <v>765.4936</v>
+        <v>868.3763</v>
       </c>
       <c r="F3" t="n">
-        <v>2640.9515</v>
+        <v>12327.0766</v>
       </c>
       <c r="G3" t="n">
-        <v>111.9916</v>
+        <v>54.7509</v>
       </c>
       <c r="H3" t="n">
-        <v>1801.0481</v>
+        <v>3150.8089</v>
       </c>
       <c r="I3" t="n">
-        <v>68.3467</v>
+        <v>10.3162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8734.3568</v>
+        <v>19743.9093</v>
       </c>
       <c r="C4" t="n">
-        <v>1815.3477</v>
+        <v>418.0822</v>
       </c>
       <c r="D4" t="n">
-        <v>1114.324</v>
+        <v>33210.7617</v>
       </c>
       <c r="E4" t="n">
-        <v>1867.8204</v>
+        <v>763.0562</v>
       </c>
       <c r="F4" t="n">
-        <v>1787.3411</v>
+        <v>14711.402</v>
       </c>
       <c r="G4" t="n">
-        <v>319.3363</v>
+        <v>45.2615</v>
       </c>
       <c r="H4" t="n">
-        <v>3657.0741</v>
+        <v>2903.7823</v>
       </c>
       <c r="I4" t="n">
-        <v>127.317</v>
+        <v>7.5317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11687.8977</v>
+        <v>22144.3942</v>
       </c>
       <c r="C5" t="n">
-        <v>1891.4248</v>
+        <v>378.1633</v>
       </c>
       <c r="D5" t="n">
-        <v>1974.7188</v>
+        <v>41574.138</v>
       </c>
       <c r="E5" t="n">
-        <v>2101.574</v>
+        <v>698.0399</v>
       </c>
       <c r="F5" t="n">
-        <v>2668.1613</v>
+        <v>18419.6454</v>
       </c>
       <c r="G5" t="n">
-        <v>293.3845</v>
+        <v>32.5938</v>
       </c>
       <c r="H5" t="n">
-        <v>4559.7251</v>
+        <v>2761.3338</v>
       </c>
       <c r="I5" t="n">
-        <v>111.9511</v>
+        <v>5.0742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14393.4639</v>
+        <v>21690.7331</v>
       </c>
       <c r="C6" t="n">
-        <v>2089.823</v>
+        <v>266.1907</v>
       </c>
       <c r="D6" t="n">
-        <v>2705.8347</v>
+        <v>49820.2606</v>
       </c>
       <c r="E6" t="n">
-        <v>2430.3412</v>
+        <v>550.5103</v>
       </c>
       <c r="F6" t="n">
-        <v>3929.9896</v>
+        <v>20404.8022</v>
       </c>
       <c r="G6" t="n">
-        <v>319.2723</v>
+        <v>18.5819</v>
       </c>
       <c r="H6" t="n">
-        <v>5211.0443</v>
+        <v>2282.0775</v>
       </c>
       <c r="I6" t="n">
-        <v>123.4252</v>
+        <v>2.4581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17501.0761</v>
+        <v>19381.5699</v>
       </c>
       <c r="C7" t="n">
-        <v>2407.994</v>
+        <v>195.0928</v>
       </c>
       <c r="D7" t="n">
-        <v>2528.9227</v>
+        <v>53610.8655</v>
       </c>
       <c r="E7" t="n">
-        <v>2851.1753</v>
+        <v>412.6776</v>
       </c>
       <c r="F7" t="n">
-        <v>4033.6556</v>
+        <v>20561.1417</v>
       </c>
       <c r="G7" t="n">
-        <v>381.145</v>
+        <v>11.4432</v>
       </c>
       <c r="H7" t="n">
-        <v>6380.3507</v>
+        <v>1804.8695</v>
       </c>
       <c r="I7" t="n">
-        <v>157.4886</v>
+        <v>1.1856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16395.7325</v>
+        <v>20369.3927</v>
       </c>
       <c r="C8" t="n">
-        <v>613.1541999999999</v>
+        <v>148.5083</v>
       </c>
       <c r="D8" t="n">
-        <v>17814.0904</v>
+        <v>58584.4087</v>
       </c>
       <c r="E8" t="n">
-        <v>920.3656999999999</v>
+        <v>354.7742</v>
       </c>
       <c r="F8" t="n">
-        <v>9244.3326</v>
+        <v>21381.3694</v>
       </c>
       <c r="G8" t="n">
-        <v>72.74290000000001</v>
+        <v>8.5746</v>
       </c>
       <c r="H8" t="n">
-        <v>3181.7496</v>
+        <v>1732.5383</v>
       </c>
       <c r="I8" t="n">
-        <v>17.2351</v>
+        <v>1.0466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19155.5027</v>
+        <v>20088.6071</v>
       </c>
       <c r="C9" t="n">
-        <v>523.4813</v>
+        <v>132.707</v>
       </c>
       <c r="D9" t="n">
-        <v>25706.5729</v>
+        <v>65201.1241</v>
       </c>
       <c r="E9" t="n">
-        <v>868.3763</v>
+        <v>318.9941</v>
       </c>
       <c r="F9" t="n">
-        <v>12327.0766</v>
+        <v>22460.2189</v>
       </c>
       <c r="G9" t="n">
-        <v>54.7509</v>
+        <v>6.8685</v>
       </c>
       <c r="H9" t="n">
-        <v>3150.8089</v>
+        <v>1589.5544</v>
       </c>
       <c r="I9" t="n">
-        <v>10.3162</v>
+        <v>0.4547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19743.9093</v>
+        <v>20088.534</v>
       </c>
       <c r="C10" t="n">
-        <v>418.0822</v>
+        <v>119.9816</v>
       </c>
       <c r="D10" t="n">
-        <v>33210.7617</v>
+        <v>74832.361</v>
       </c>
       <c r="E10" t="n">
-        <v>763.0562</v>
+        <v>275.3736</v>
       </c>
       <c r="F10" t="n">
-        <v>14711.402</v>
+        <v>23436.6137</v>
       </c>
       <c r="G10" t="n">
-        <v>45.2615</v>
+        <v>6.9767</v>
       </c>
       <c r="H10" t="n">
-        <v>2903.7823</v>
+        <v>1503.2988</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5317</v>
+        <v>0.3752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22144.3942</v>
+        <v>20622.6004</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1633</v>
+        <v>116.8259</v>
       </c>
       <c r="D11" t="n">
-        <v>41574.138</v>
+        <v>84092.9602</v>
       </c>
       <c r="E11" t="n">
-        <v>698.0399</v>
+        <v>277.9759</v>
       </c>
       <c r="F11" t="n">
-        <v>18419.6454</v>
+        <v>25659.2087</v>
       </c>
       <c r="G11" t="n">
-        <v>32.5938</v>
+        <v>6.0372</v>
       </c>
       <c r="H11" t="n">
-        <v>2761.3338</v>
+        <v>1418.2573</v>
       </c>
       <c r="I11" t="n">
-        <v>5.0742</v>
+        <v>0.3993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21690.7331</v>
+        <v>19925.4001</v>
       </c>
       <c r="C12" t="n">
-        <v>266.1907</v>
+        <v>100.2176</v>
       </c>
       <c r="D12" t="n">
-        <v>49820.2606</v>
+        <v>93127.8135</v>
       </c>
       <c r="E12" t="n">
-        <v>550.5103</v>
+        <v>247.776</v>
       </c>
       <c r="F12" t="n">
-        <v>20404.8022</v>
+        <v>26793.2174</v>
       </c>
       <c r="G12" t="n">
-        <v>18.5819</v>
+        <v>5.9577</v>
       </c>
       <c r="H12" t="n">
-        <v>2282.0775</v>
+        <v>1242.2307</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4581</v>
+        <v>0.3325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19381.5699</v>
+        <v>19365.2765</v>
       </c>
       <c r="C13" t="n">
-        <v>195.0928</v>
+        <v>93.5351</v>
       </c>
       <c r="D13" t="n">
-        <v>53610.8655</v>
+        <v>99715.901</v>
       </c>
       <c r="E13" t="n">
-        <v>412.6776</v>
+        <v>226.5763</v>
       </c>
       <c r="F13" t="n">
-        <v>20561.1417</v>
+        <v>27073.3581</v>
       </c>
       <c r="G13" t="n">
-        <v>11.4432</v>
+        <v>4.7739</v>
       </c>
       <c r="H13" t="n">
-        <v>1804.8695</v>
+        <v>1122.4223</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1856</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>20369.3927</v>
-      </c>
-      <c r="C14" t="n">
-        <v>148.5083</v>
-      </c>
-      <c r="D14" t="n">
-        <v>58584.4087</v>
-      </c>
-      <c r="E14" t="n">
-        <v>354.7742</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21381.3694</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.5746</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1732.5383</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.0466</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>20088.6071</v>
-      </c>
-      <c r="C15" t="n">
-        <v>132.707</v>
-      </c>
-      <c r="D15" t="n">
-        <v>65201.1241</v>
-      </c>
-      <c r="E15" t="n">
-        <v>318.9941</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22460.2189</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.8685</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1589.5544</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.4547</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>20088.534</v>
-      </c>
-      <c r="C16" t="n">
-        <v>119.9816</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74832.361</v>
-      </c>
-      <c r="E16" t="n">
-        <v>275.3736</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23436.6137</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.9767</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1503.2988</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3752</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20622.6004</v>
-      </c>
-      <c r="C17" t="n">
-        <v>116.8259</v>
-      </c>
-      <c r="D17" t="n">
-        <v>84092.9602</v>
-      </c>
-      <c r="E17" t="n">
-        <v>277.9759</v>
-      </c>
-      <c r="F17" t="n">
-        <v>25659.2087</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.0372</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1418.2573</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3993</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>19925.4001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100.2176</v>
-      </c>
-      <c r="D18" t="n">
-        <v>93127.8135</v>
-      </c>
-      <c r="E18" t="n">
-        <v>247.776</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26793.2174</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.9577</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1242.2307</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3325</v>
+        <v>0.2335</v>
       </c>
     </row>
   </sheetData>
